--- a/data_month/zb/价格指数/分行业中类工业生产者出厂价格指数(上年同月=100)(2014-2017)/电气机械和器材制造业工业生产者出厂价格指数(上年同月=100).xlsx
+++ b/data_month/zb/价格指数/分行业中类工业生产者出厂价格指数(上年同月=100)(2014-2017)/电气机械和器材制造业工业生产者出厂价格指数(上年同月=100).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -478,1350 +478,1350 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2014年10月</t>
+          <t>2014-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99.75700000000001</v>
+        <v>101.5805</v>
       </c>
       <c r="C2" t="n">
-        <v>98.9944</v>
+        <v>99.76609999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>99.09480000000001</v>
+        <v>99.2636</v>
       </c>
       <c r="E2" t="n">
-        <v>99.79600000000001</v>
+        <v>98.8672</v>
       </c>
       <c r="F2" t="n">
-        <v>98.24760000000001</v>
+        <v>97.68640000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>96.9298</v>
+        <v>96.95010000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>100.1619</v>
+        <v>99.8522</v>
       </c>
       <c r="I2" t="n">
-        <v>99.9408</v>
+        <v>99.3419</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2014年11月</t>
+          <t>2014-02</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>99.97450000000001</v>
+        <v>101.7588</v>
       </c>
       <c r="C3" t="n">
-        <v>99.0861</v>
+        <v>99.8219</v>
       </c>
       <c r="D3" t="n">
-        <v>98.929</v>
+        <v>99.5741</v>
       </c>
       <c r="E3" t="n">
-        <v>99.69289999999999</v>
+        <v>99.07850000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>97.5547</v>
+        <v>98.9632</v>
       </c>
       <c r="G3" t="n">
-        <v>96.8048</v>
+        <v>95.8646</v>
       </c>
       <c r="H3" t="n">
-        <v>100.0991</v>
+        <v>99.6103</v>
       </c>
       <c r="I3" t="n">
-        <v>100.7159</v>
+        <v>99.2962</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2014年12月</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.0976</v>
+        <v>101.8732</v>
       </c>
       <c r="C4" t="n">
-        <v>99.1546</v>
+        <v>99.8312</v>
       </c>
       <c r="D4" t="n">
-        <v>98.8817</v>
+        <v>99.3548</v>
       </c>
       <c r="E4" t="n">
-        <v>99.8905</v>
+        <v>99.0886</v>
       </c>
       <c r="F4" t="n">
-        <v>97.8763</v>
+        <v>98.89</v>
       </c>
       <c r="G4" t="n">
-        <v>96.62520000000001</v>
+        <v>94.8005</v>
       </c>
       <c r="H4" t="n">
-        <v>100.2132</v>
+        <v>99.84910000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>101.2646</v>
+        <v>98.7277</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2014年1月</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>101.5805</v>
+        <v>102.0701</v>
       </c>
       <c r="C5" t="n">
-        <v>99.76609999999999</v>
+        <v>99.9222</v>
       </c>
       <c r="D5" t="n">
-        <v>99.2636</v>
+        <v>99.4534</v>
       </c>
       <c r="E5" t="n">
-        <v>98.8672</v>
+        <v>98.9629</v>
       </c>
       <c r="F5" t="n">
-        <v>97.68640000000001</v>
+        <v>98.92010000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>96.95010000000001</v>
+        <v>95.54949999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>99.8522</v>
+        <v>99.90479999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>99.3419</v>
+        <v>99.21639999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2014年2月</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>101.7588</v>
+        <v>101.6386</v>
       </c>
       <c r="C6" t="n">
-        <v>99.8219</v>
+        <v>99.8402</v>
       </c>
       <c r="D6" t="n">
-        <v>99.5741</v>
+        <v>99.2368</v>
       </c>
       <c r="E6" t="n">
-        <v>99.07850000000001</v>
+        <v>99.10209999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>98.9632</v>
+        <v>99.02249999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>95.8646</v>
+        <v>96.6093</v>
       </c>
       <c r="H6" t="n">
-        <v>99.6103</v>
+        <v>99.8627</v>
       </c>
       <c r="I6" t="n">
-        <v>99.2962</v>
+        <v>99.17059999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2014年3月</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>101.8732</v>
+        <v>101.3371</v>
       </c>
       <c r="C7" t="n">
-        <v>99.8312</v>
+        <v>99.0761</v>
       </c>
       <c r="D7" t="n">
-        <v>99.3548</v>
+        <v>99.37609999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>99.0886</v>
+        <v>99.235</v>
       </c>
       <c r="F7" t="n">
-        <v>98.89</v>
+        <v>99.0204</v>
       </c>
       <c r="G7" t="n">
-        <v>94.8005</v>
+        <v>97.0591</v>
       </c>
       <c r="H7" t="n">
-        <v>99.84910000000001</v>
+        <v>99.876</v>
       </c>
       <c r="I7" t="n">
-        <v>98.7277</v>
+        <v>99.2516</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2014年4月</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>102.0701</v>
+        <v>100.889</v>
       </c>
       <c r="C8" t="n">
-        <v>99.9222</v>
+        <v>99.0766</v>
       </c>
       <c r="D8" t="n">
-        <v>99.4534</v>
+        <v>99.4055</v>
       </c>
       <c r="E8" t="n">
-        <v>98.9629</v>
+        <v>99.3259</v>
       </c>
       <c r="F8" t="n">
-        <v>98.92010000000001</v>
+        <v>98.66249999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>95.54949999999999</v>
+        <v>98.58839999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>99.90479999999999</v>
+        <v>99.96810000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>99.21639999999999</v>
+        <v>99.2876</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2014年5月</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>101.6386</v>
+        <v>101.2089</v>
       </c>
       <c r="C9" t="n">
-        <v>99.8402</v>
+        <v>99.0236</v>
       </c>
       <c r="D9" t="n">
-        <v>99.2368</v>
+        <v>99.3587</v>
       </c>
       <c r="E9" t="n">
-        <v>99.10209999999999</v>
+        <v>99.55410000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>99.02249999999999</v>
+        <v>98.2313</v>
       </c>
       <c r="G9" t="n">
-        <v>96.6093</v>
+        <v>98.0104</v>
       </c>
       <c r="H9" t="n">
-        <v>99.8627</v>
+        <v>100.0062</v>
       </c>
       <c r="I9" t="n">
-        <v>99.17059999999999</v>
+        <v>99.57989999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2014年6月</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>101.3371</v>
+        <v>99.7608</v>
       </c>
       <c r="C10" t="n">
-        <v>99.0761</v>
+        <v>98.8481</v>
       </c>
       <c r="D10" t="n">
-        <v>99.37609999999999</v>
+        <v>99.2136</v>
       </c>
       <c r="E10" t="n">
-        <v>99.235</v>
+        <v>99.7453</v>
       </c>
       <c r="F10" t="n">
-        <v>99.0204</v>
+        <v>98.1515</v>
       </c>
       <c r="G10" t="n">
-        <v>97.0591</v>
+        <v>97.72969999999999</v>
       </c>
       <c r="H10" t="n">
-        <v>99.876</v>
+        <v>100.0905</v>
       </c>
       <c r="I10" t="n">
-        <v>99.2516</v>
+        <v>99.8754</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2014年7月</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>100.889</v>
+        <v>99.75700000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>99.0766</v>
+        <v>98.9944</v>
       </c>
       <c r="D11" t="n">
-        <v>99.4055</v>
+        <v>99.09480000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>99.3259</v>
+        <v>99.79600000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>98.66249999999999</v>
+        <v>98.24760000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>98.58839999999999</v>
+        <v>96.9298</v>
       </c>
       <c r="H11" t="n">
-        <v>99.96810000000001</v>
+        <v>100.1619</v>
       </c>
       <c r="I11" t="n">
-        <v>99.2876</v>
+        <v>99.9408</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2014年8月</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>101.2089</v>
+        <v>99.97450000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>99.0236</v>
+        <v>99.0861</v>
       </c>
       <c r="D12" t="n">
-        <v>99.3587</v>
+        <v>98.929</v>
       </c>
       <c r="E12" t="n">
-        <v>99.55410000000001</v>
+        <v>99.69289999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>98.2313</v>
+        <v>97.5547</v>
       </c>
       <c r="G12" t="n">
-        <v>98.0104</v>
+        <v>96.8048</v>
       </c>
       <c r="H12" t="n">
-        <v>100.0062</v>
+        <v>100.0991</v>
       </c>
       <c r="I12" t="n">
-        <v>99.57989999999999</v>
+        <v>100.7159</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2014年9月</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>99.7608</v>
+        <v>99.0976</v>
       </c>
       <c r="C13" t="n">
-        <v>98.8481</v>
+        <v>99.1546</v>
       </c>
       <c r="D13" t="n">
-        <v>99.2136</v>
+        <v>98.8817</v>
       </c>
       <c r="E13" t="n">
-        <v>99.7453</v>
+        <v>99.8905</v>
       </c>
       <c r="F13" t="n">
-        <v>98.1515</v>
+        <v>97.8763</v>
       </c>
       <c r="G13" t="n">
-        <v>97.72969999999999</v>
+        <v>96.62520000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>100.0905</v>
+        <v>100.2132</v>
       </c>
       <c r="I13" t="n">
-        <v>99.8754</v>
+        <v>101.2646</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2015年10月</t>
+          <t>2015-01</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>99.3</v>
+        <v>97.78789999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>99.09999999999999</v>
+        <v>99.2709</v>
       </c>
       <c r="D14" t="n">
-        <v>98.59999999999999</v>
+        <v>98.9804</v>
       </c>
       <c r="E14" t="n">
-        <v>99</v>
+        <v>99.8231</v>
       </c>
       <c r="F14" t="n">
-        <v>98.09999999999999</v>
+        <v>97.49630000000001</v>
       </c>
       <c r="G14" t="n">
-        <v>92.7</v>
+        <v>94.99420000000001</v>
       </c>
       <c r="H14" t="n">
-        <v>99.8</v>
+        <v>100.004</v>
       </c>
       <c r="I14" t="n">
-        <v>101.6</v>
+        <v>101.6771</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2015年11月</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>99.2931</v>
+        <v>98.0038</v>
       </c>
       <c r="C15" t="n">
-        <v>98.7612</v>
+        <v>99.23690000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>98.90779999999999</v>
+        <v>98.73439999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>98.8398</v>
+        <v>100.0447</v>
       </c>
       <c r="F15" t="n">
-        <v>98.42440000000001</v>
+        <v>96.6002</v>
       </c>
       <c r="G15" t="n">
-        <v>91.8514</v>
+        <v>94.2916</v>
       </c>
       <c r="H15" t="n">
-        <v>99.7299</v>
+        <v>100.0672</v>
       </c>
       <c r="I15" t="n">
-        <v>101.0804</v>
+        <v>101.7187</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2015年12月</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>99.97539999999999</v>
+        <v>98.7375</v>
       </c>
       <c r="C16" t="n">
-        <v>98.77630000000001</v>
+        <v>99.2576</v>
       </c>
       <c r="D16" t="n">
-        <v>98.8558</v>
+        <v>98.92659999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>98.75239999999999</v>
+        <v>99.91119999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>98.18389999999999</v>
+        <v>97.08029999999999</v>
       </c>
       <c r="G16" t="n">
-        <v>91.43380000000001</v>
+        <v>95.7461</v>
       </c>
       <c r="H16" t="n">
-        <v>99.5763</v>
+        <v>99.85469999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>100.7466</v>
+        <v>102.2053</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2015年1月</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>97.78789999999999</v>
+        <v>97.911</v>
       </c>
       <c r="C17" t="n">
-        <v>99.2709</v>
+        <v>98.6816</v>
       </c>
       <c r="D17" t="n">
-        <v>98.9804</v>
+        <v>98.76609999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>99.8231</v>
+        <v>100.0138</v>
       </c>
       <c r="F17" t="n">
-        <v>97.49630000000001</v>
+        <v>97.0301</v>
       </c>
       <c r="G17" t="n">
-        <v>94.99420000000001</v>
+        <v>96.40940000000001</v>
       </c>
       <c r="H17" t="n">
-        <v>100.004</v>
+        <v>99.786</v>
       </c>
       <c r="I17" t="n">
-        <v>101.6771</v>
+        <v>102.1247</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2015年2月</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>98.0038</v>
+        <v>97.88079999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>99.23690000000001</v>
+        <v>98.72799999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>98.73439999999999</v>
+        <v>98.6326</v>
       </c>
       <c r="E18" t="n">
-        <v>100.0447</v>
+        <v>99.84399999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>96.6002</v>
+        <v>97.59990000000001</v>
       </c>
       <c r="G18" t="n">
-        <v>94.2916</v>
+        <v>96.1267</v>
       </c>
       <c r="H18" t="n">
-        <v>100.0672</v>
+        <v>99.8314</v>
       </c>
       <c r="I18" t="n">
-        <v>101.7187</v>
+        <v>102.0539</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2015年3月</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>98.7375</v>
+        <v>97.893</v>
       </c>
       <c r="C19" t="n">
-        <v>99.2576</v>
+        <v>99.5398</v>
       </c>
       <c r="D19" t="n">
-        <v>98.92659999999999</v>
+        <v>98.4926</v>
       </c>
       <c r="E19" t="n">
-        <v>99.91119999999999</v>
+        <v>99.8253</v>
       </c>
       <c r="F19" t="n">
-        <v>97.08029999999999</v>
+        <v>97.482</v>
       </c>
       <c r="G19" t="n">
-        <v>95.7461</v>
+        <v>95.2055</v>
       </c>
       <c r="H19" t="n">
-        <v>99.85469999999999</v>
+        <v>99.8045</v>
       </c>
       <c r="I19" t="n">
-        <v>102.2053</v>
+        <v>102.3385</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2015年4月</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>97.911</v>
+        <v>98.3383</v>
       </c>
       <c r="C20" t="n">
-        <v>98.6816</v>
+        <v>99.3272</v>
       </c>
       <c r="D20" t="n">
-        <v>98.76609999999999</v>
+        <v>98.3047</v>
       </c>
       <c r="E20" t="n">
-        <v>100.0138</v>
+        <v>99.6716</v>
       </c>
       <c r="F20" t="n">
-        <v>97.0301</v>
+        <v>98.01560000000001</v>
       </c>
       <c r="G20" t="n">
-        <v>96.40940000000001</v>
+        <v>93.6688</v>
       </c>
       <c r="H20" t="n">
-        <v>99.786</v>
+        <v>99.7273</v>
       </c>
       <c r="I20" t="n">
-        <v>102.1247</v>
+        <v>102.289</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2015年5月</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>97.88079999999999</v>
+        <v>97.75920000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>98.72799999999999</v>
+        <v>99.4853</v>
       </c>
       <c r="D21" t="n">
-        <v>98.6326</v>
+        <v>98.2931</v>
       </c>
       <c r="E21" t="n">
-        <v>99.84399999999999</v>
+        <v>99.4541</v>
       </c>
       <c r="F21" t="n">
-        <v>97.59990000000001</v>
+        <v>97.9413</v>
       </c>
       <c r="G21" t="n">
-        <v>96.1267</v>
+        <v>92.4015</v>
       </c>
       <c r="H21" t="n">
-        <v>99.8314</v>
+        <v>99.8009</v>
       </c>
       <c r="I21" t="n">
-        <v>102.0539</v>
+        <v>101.9621</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2015年6月</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.893</v>
+        <v>99.2443</v>
       </c>
       <c r="C22" t="n">
-        <v>99.5398</v>
+        <v>99.37860000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>98.4926</v>
+        <v>98.52930000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>99.8253</v>
+        <v>99.316</v>
       </c>
       <c r="F22" t="n">
-        <v>97.482</v>
+        <v>98.0429</v>
       </c>
       <c r="G22" t="n">
-        <v>95.2055</v>
+        <v>92.38639999999999</v>
       </c>
       <c r="H22" t="n">
-        <v>99.8045</v>
+        <v>99.8553</v>
       </c>
       <c r="I22" t="n">
-        <v>102.3385</v>
+        <v>101.7521</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2015年7月</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>98.3383</v>
+        <v>99.3</v>
       </c>
       <c r="C23" t="n">
-        <v>99.3272</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>98.3047</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>99.6716</v>
+        <v>99</v>
       </c>
       <c r="F23" t="n">
-        <v>98.01560000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="G23" t="n">
-        <v>93.6688</v>
+        <v>92.7</v>
       </c>
       <c r="H23" t="n">
-        <v>99.7273</v>
+        <v>99.8</v>
       </c>
       <c r="I23" t="n">
-        <v>102.289</v>
+        <v>101.6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2015年8月</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>97.75920000000001</v>
+        <v>99.2931</v>
       </c>
       <c r="C24" t="n">
-        <v>99.4853</v>
+        <v>98.7612</v>
       </c>
       <c r="D24" t="n">
-        <v>98.2931</v>
+        <v>98.90779999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>99.4541</v>
+        <v>98.8398</v>
       </c>
       <c r="F24" t="n">
-        <v>97.9413</v>
+        <v>98.42440000000001</v>
       </c>
       <c r="G24" t="n">
-        <v>92.4015</v>
+        <v>91.8514</v>
       </c>
       <c r="H24" t="n">
-        <v>99.8009</v>
+        <v>99.7299</v>
       </c>
       <c r="I24" t="n">
-        <v>101.9621</v>
+        <v>101.0804</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2015年9月</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>99.2443</v>
+        <v>99.97539999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>99.37860000000001</v>
+        <v>98.77630000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>98.52930000000001</v>
+        <v>98.8558</v>
       </c>
       <c r="E25" t="n">
-        <v>99.316</v>
+        <v>98.75239999999999</v>
       </c>
       <c r="F25" t="n">
-        <v>98.0429</v>
+        <v>98.18389999999999</v>
       </c>
       <c r="G25" t="n">
-        <v>92.38639999999999</v>
+        <v>91.43380000000001</v>
       </c>
       <c r="H25" t="n">
-        <v>99.8553</v>
+        <v>99.5763</v>
       </c>
       <c r="I25" t="n">
-        <v>101.7521</v>
+        <v>100.7466</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2016年10月</t>
+          <t>2016-01</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>100.7</v>
+        <v>99.0095</v>
       </c>
       <c r="C26" t="n">
-        <v>99.40000000000001</v>
+        <v>98.2535</v>
       </c>
       <c r="D26" t="n">
-        <v>98.7</v>
+        <v>97.82429999999999</v>
       </c>
       <c r="E26" t="n">
-        <v>100.2</v>
+        <v>99.1373</v>
       </c>
       <c r="F26" t="n">
-        <v>100.4</v>
+        <v>97.63500000000001</v>
       </c>
       <c r="G26" t="n">
-        <v>98.59999999999999</v>
+        <v>93.0772</v>
       </c>
       <c r="H26" t="n">
-        <v>96.59999999999999</v>
+        <v>98.7898</v>
       </c>
       <c r="I26" t="n">
-        <v>101</v>
+        <v>100.7477</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2016年11月</t>
+          <t>2016-02</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>100.8</v>
+        <v>99.1425</v>
       </c>
       <c r="C27" t="n">
-        <v>99.5</v>
+        <v>98.0063</v>
       </c>
       <c r="D27" t="n">
-        <v>98.59999999999999</v>
+        <v>98.13630000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>100.3</v>
+        <v>99.1284</v>
       </c>
       <c r="F27" t="n">
-        <v>101</v>
+        <v>98.0453</v>
       </c>
       <c r="G27" t="n">
-        <v>102.1</v>
+        <v>94.26260000000001</v>
       </c>
       <c r="H27" t="n">
-        <v>97.09999999999999</v>
+        <v>98.7719</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3</v>
+        <v>100.8169</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2016年12月</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>101.1</v>
+        <v>98.5402</v>
       </c>
       <c r="C28" t="n">
-        <v>100.1</v>
+        <v>98.096</v>
       </c>
       <c r="D28" t="n">
-        <v>99</v>
+        <v>97.7881</v>
       </c>
       <c r="E28" t="n">
-        <v>101</v>
+        <v>99.29859999999999</v>
       </c>
       <c r="F28" t="n">
-        <v>103.6</v>
+        <v>98.3344</v>
       </c>
       <c r="G28" t="n">
-        <v>105.2</v>
+        <v>94.7402</v>
       </c>
       <c r="H28" t="n">
-        <v>97.09999999999999</v>
+        <v>98.94889999999999</v>
       </c>
       <c r="I28" t="n">
-        <v>101.3</v>
+        <v>101.0286</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2016年1月</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>99.0095</v>
+        <v>98.2642</v>
       </c>
       <c r="C29" t="n">
-        <v>98.2535</v>
+        <v>98.64490000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>97.82429999999999</v>
+        <v>98.0686</v>
       </c>
       <c r="E29" t="n">
-        <v>99.1373</v>
+        <v>99.57299999999999</v>
       </c>
       <c r="F29" t="n">
-        <v>97.63500000000001</v>
+        <v>98.49809999999999</v>
       </c>
       <c r="G29" t="n">
-        <v>93.0772</v>
+        <v>94.7587</v>
       </c>
       <c r="H29" t="n">
-        <v>98.7898</v>
+        <v>98.748</v>
       </c>
       <c r="I29" t="n">
-        <v>100.7477</v>
+        <v>100.5606</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2016年2月</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>99.1425</v>
+        <v>99.5</v>
       </c>
       <c r="C30" t="n">
-        <v>98.0063</v>
+        <v>98.5</v>
       </c>
       <c r="D30" t="n">
-        <v>98.13630000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>99.1284</v>
+        <v>99.8</v>
       </c>
       <c r="F30" t="n">
-        <v>98.0453</v>
+        <v>98.2</v>
       </c>
       <c r="G30" t="n">
-        <v>94.26260000000001</v>
+        <v>94.2</v>
       </c>
       <c r="H30" t="n">
-        <v>98.7719</v>
+        <v>98.7</v>
       </c>
       <c r="I30" t="n">
-        <v>100.8169</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2016年3月</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>98.5402</v>
+        <v>100.4</v>
       </c>
       <c r="C31" t="n">
-        <v>98.096</v>
+        <v>98.7</v>
       </c>
       <c r="D31" t="n">
-        <v>97.7881</v>
+        <v>98.5</v>
       </c>
       <c r="E31" t="n">
-        <v>99.29859999999999</v>
+        <v>100</v>
       </c>
       <c r="F31" t="n">
-        <v>98.3344</v>
+        <v>98.5</v>
       </c>
       <c r="G31" t="n">
-        <v>94.7402</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="H31" t="n">
-        <v>98.94889999999999</v>
+        <v>98.8</v>
       </c>
       <c r="I31" t="n">
-        <v>101.0286</v>
+        <v>100.6</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2016年4月</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>98.2642</v>
+        <v>100.9</v>
       </c>
       <c r="C32" t="n">
-        <v>98.64490000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>98.0686</v>
+        <v>98.7</v>
       </c>
       <c r="E32" t="n">
-        <v>99.57299999999999</v>
+        <v>100.1</v>
       </c>
       <c r="F32" t="n">
-        <v>98.49809999999999</v>
+        <v>98.8</v>
       </c>
       <c r="G32" t="n">
-        <v>94.7587</v>
+        <v>96.7</v>
       </c>
       <c r="H32" t="n">
-        <v>98.748</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="I32" t="n">
-        <v>100.5606</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2016年5月</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>99.5</v>
+        <v>101.2</v>
       </c>
       <c r="C33" t="n">
-        <v>98.5</v>
+        <v>98.8</v>
       </c>
       <c r="D33" t="n">
-        <v>98.09999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="E33" t="n">
-        <v>99.8</v>
+        <v>100.2</v>
       </c>
       <c r="F33" t="n">
-        <v>98.2</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="G33" t="n">
-        <v>94.2</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="H33" t="n">
-        <v>98.7</v>
+        <v>98</v>
       </c>
       <c r="I33" t="n">
-        <v>100.4</v>
+        <v>100.9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2016年6月</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>100.4</v>
+        <v>101</v>
       </c>
       <c r="C34" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="D34" t="n">
         <v>98.7</v>
       </c>
-      <c r="D34" t="n">
-        <v>98.5</v>
-      </c>
       <c r="E34" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F34" t="n">
-        <v>98.5</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="G34" t="n">
-        <v>94.90000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="H34" t="n">
-        <v>98.8</v>
+        <v>97.2</v>
       </c>
       <c r="I34" t="n">
-        <v>100.6</v>
+        <v>100.8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2016年7月</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>100.9</v>
+        <v>100.7</v>
       </c>
       <c r="C35" t="n">
-        <v>98.59999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D35" t="n">
         <v>98.7</v>
       </c>
       <c r="E35" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="F35" t="n">
-        <v>98.8</v>
+        <v>100.4</v>
       </c>
       <c r="G35" t="n">
-        <v>96.7</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="H35" t="n">
-        <v>98.40000000000001</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="I35" t="n">
-        <v>100.5</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2016年8月</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>101.2</v>
+        <v>100.8</v>
       </c>
       <c r="C36" t="n">
-        <v>98.8</v>
+        <v>99.5</v>
       </c>
       <c r="D36" t="n">
-        <v>98.7</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="E36" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="F36" t="n">
-        <v>99.40000000000001</v>
+        <v>101</v>
       </c>
       <c r="G36" t="n">
-        <v>97.90000000000001</v>
+        <v>102.1</v>
       </c>
       <c r="H36" t="n">
-        <v>98</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="I36" t="n">
-        <v>100.9</v>
+        <v>101.3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2016年9月</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B37" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="C37" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>99</v>
+      </c>
+      <c r="E37" t="n">
         <v>101</v>
       </c>
-      <c r="C37" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="D37" t="n">
-        <v>98.7</v>
-      </c>
-      <c r="E37" t="n">
-        <v>99.90000000000001</v>
-      </c>
       <c r="F37" t="n">
-        <v>99.09999999999999</v>
+        <v>103.6</v>
       </c>
       <c r="G37" t="n">
-        <v>97.8</v>
+        <v>105.2</v>
       </c>
       <c r="H37" t="n">
-        <v>97.2</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="I37" t="n">
-        <v>100.8</v>
+        <v>101.3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2017年10月</t>
+          <t>2017-01</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>100.2</v>
+        <v>102.1</v>
       </c>
       <c r="C38" t="n">
-        <v>101.3</v>
+        <v>100.5</v>
       </c>
       <c r="D38" t="n">
-        <v>99.90000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="E38" t="n">
-        <v>102.9</v>
+        <v>101.5</v>
       </c>
       <c r="F38" t="n">
-        <v>105.4</v>
+        <v>104.4</v>
       </c>
       <c r="G38" t="n">
-        <v>110.6</v>
+        <v>105.7</v>
       </c>
       <c r="H38" t="n">
-        <v>99.7</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="I38" t="n">
-        <v>101.7</v>
+        <v>101.5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2017年11月</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>99.8</v>
+        <v>101.7</v>
       </c>
       <c r="C39" t="n">
-        <v>101.4</v>
+        <v>101.2</v>
       </c>
       <c r="D39" t="n">
-        <v>100.1</v>
+        <v>99.3</v>
       </c>
       <c r="E39" t="n">
-        <v>103.2</v>
+        <v>101.6</v>
       </c>
       <c r="F39" t="n">
-        <v>105.1</v>
+        <v>104.6</v>
       </c>
       <c r="G39" t="n">
-        <v>108.6</v>
+        <v>106.4</v>
       </c>
       <c r="H39" t="n">
-        <v>99.09999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="I39" t="n">
-        <v>101.5</v>
+        <v>100.9</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2017年12月</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>99.3</v>
+        <v>102.5</v>
       </c>
       <c r="C40" t="n">
-        <v>100.7</v>
+        <v>101.5</v>
       </c>
       <c r="D40" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="E40" t="n">
-        <v>103</v>
+        <v>102.1</v>
       </c>
       <c r="F40" t="n">
-        <v>102</v>
+        <v>104.2</v>
       </c>
       <c r="G40" t="n">
-        <v>106.5</v>
+        <v>106.6</v>
       </c>
       <c r="H40" t="n">
-        <v>98.8</v>
+        <v>97.2</v>
       </c>
       <c r="I40" t="n">
-        <v>101.9</v>
+        <v>101.8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2017年1月</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B41" t="n">
+        <v>102.4</v>
+      </c>
+      <c r="C41" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="D41" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="E41" t="n">
         <v>102.1</v>
       </c>
-      <c r="C41" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="D41" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="E41" t="n">
-        <v>101.5</v>
-      </c>
       <c r="F41" t="n">
-        <v>104.4</v>
+        <v>104.2</v>
       </c>
       <c r="G41" t="n">
-        <v>105.7</v>
+        <v>106.4</v>
       </c>
       <c r="H41" t="n">
         <v>97.40000000000001</v>
       </c>
       <c r="I41" t="n">
-        <v>101.5</v>
+        <v>101.9</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2017年2月</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>101.7</v>
+        <v>100.7</v>
       </c>
       <c r="C42" t="n">
-        <v>101.2</v>
+        <v>101.8</v>
       </c>
       <c r="D42" t="n">
-        <v>99.3</v>
+        <v>100</v>
       </c>
       <c r="E42" t="n">
-        <v>101.6</v>
+        <v>102.2</v>
       </c>
       <c r="F42" t="n">
-        <v>104.6</v>
+        <v>103.9</v>
       </c>
       <c r="G42" t="n">
-        <v>106.4</v>
+        <v>106.3</v>
       </c>
       <c r="H42" t="n">
-        <v>97.3</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="I42" t="n">
-        <v>100.9</v>
+        <v>102.8</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2017年3月</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>102.5</v>
+        <v>100.2</v>
       </c>
       <c r="C43" t="n">
-        <v>101.5</v>
+        <v>101.8</v>
       </c>
       <c r="D43" t="n">
-        <v>99.7</v>
+        <v>100</v>
       </c>
       <c r="E43" t="n">
         <v>102.1</v>
       </c>
       <c r="F43" t="n">
-        <v>104.2</v>
+        <v>103.2</v>
       </c>
       <c r="G43" t="n">
-        <v>106.6</v>
+        <v>106.4</v>
       </c>
       <c r="H43" t="n">
-        <v>97.2</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="I43" t="n">
-        <v>101.8</v>
+        <v>102.4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2017年4月</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>102.4</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>101.4</v>
+        <v>101.9</v>
       </c>
       <c r="D44" t="n">
-        <v>99.7</v>
+        <v>100.1</v>
       </c>
       <c r="E44" t="n">
         <v>102.1</v>
       </c>
       <c r="F44" t="n">
-        <v>104.2</v>
+        <v>104</v>
       </c>
       <c r="G44" t="n">
         <v>106.4</v>
       </c>
       <c r="H44" t="n">
-        <v>97.40000000000001</v>
+        <v>98.2</v>
       </c>
       <c r="I44" t="n">
-        <v>101.9</v>
+        <v>102.2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2017年5月</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>100.7</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>101.8</v>
+        <v>101.5</v>
       </c>
       <c r="D45" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="E45" t="n">
         <v>102.2</v>
@@ -1830,134 +1830,134 @@
         <v>103.9</v>
       </c>
       <c r="G45" t="n">
-        <v>106.3</v>
+        <v>108.2</v>
       </c>
       <c r="H45" t="n">
-        <v>97.40000000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="I45" t="n">
-        <v>102.8</v>
+        <v>102.1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2017年6月</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>100.2</v>
+        <v>99.8</v>
       </c>
       <c r="C46" t="n">
-        <v>101.8</v>
+        <v>101.5</v>
       </c>
       <c r="D46" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="E46" t="n">
-        <v>102.1</v>
+        <v>102.6</v>
       </c>
       <c r="F46" t="n">
-        <v>103.2</v>
+        <v>105</v>
       </c>
       <c r="G46" t="n">
-        <v>106.4</v>
+        <v>109.7</v>
       </c>
       <c r="H46" t="n">
-        <v>97.59999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="I46" t="n">
-        <v>102.4</v>
+        <v>101.9</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2017年7月</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B47" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="C47" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="D47" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="C47" t="n">
-        <v>101.9</v>
-      </c>
-      <c r="D47" t="n">
-        <v>100.1</v>
-      </c>
       <c r="E47" t="n">
-        <v>102.1</v>
+        <v>102.9</v>
       </c>
       <c r="F47" t="n">
-        <v>104</v>
+        <v>105.4</v>
       </c>
       <c r="G47" t="n">
-        <v>106.4</v>
+        <v>110.6</v>
       </c>
       <c r="H47" t="n">
-        <v>98.2</v>
+        <v>99.7</v>
       </c>
       <c r="I47" t="n">
-        <v>102.2</v>
+        <v>101.7</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2017年8月</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>99.09999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="C48" t="n">
-        <v>101.5</v>
+        <v>101.4</v>
       </c>
       <c r="D48" t="n">
         <v>100.1</v>
       </c>
       <c r="E48" t="n">
-        <v>102.2</v>
+        <v>103.2</v>
       </c>
       <c r="F48" t="n">
-        <v>103.9</v>
+        <v>105.1</v>
       </c>
       <c r="G48" t="n">
-        <v>108.2</v>
+        <v>108.6</v>
       </c>
       <c r="H48" t="n">
-        <v>98.59999999999999</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="I48" t="n">
-        <v>102.1</v>
+        <v>101.5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2017年9月</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>99.8</v>
+        <v>99.3</v>
       </c>
       <c r="C49" t="n">
-        <v>101.5</v>
+        <v>100.7</v>
       </c>
       <c r="D49" t="n">
         <v>99.8</v>
       </c>
       <c r="E49" t="n">
-        <v>102.6</v>
+        <v>103</v>
       </c>
       <c r="F49" t="n">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G49" t="n">
-        <v>109.7</v>
+        <v>106.5</v>
       </c>
       <c r="H49" t="n">
-        <v>99.3</v>
+        <v>98.8</v>
       </c>
       <c r="I49" t="n">
         <v>101.9</v>

--- a/data_month/zb/价格指数/分行业中类工业生产者出厂价格指数(上年同月=100)(2014-2017)/电气机械和器材制造业工业生产者出厂价格指数(上年同月=100).xlsx
+++ b/data_month/zb/价格指数/分行业中类工业生产者出厂价格指数(上年同月=100)(2014-2017)/电气机械和器材制造业工业生产者出厂价格指数(上年同月=100).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -478,1350 +478,1350 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2014-01</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>101.5805</v>
+        <v>99.75700000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>99.76609999999999</v>
+        <v>98.9944</v>
       </c>
       <c r="D2" t="n">
-        <v>99.2636</v>
+        <v>99.09480000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>98.8672</v>
+        <v>99.79600000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>97.68640000000001</v>
+        <v>98.24760000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>96.95010000000001</v>
+        <v>96.9298</v>
       </c>
       <c r="H2" t="n">
-        <v>99.8522</v>
+        <v>100.1619</v>
       </c>
       <c r="I2" t="n">
-        <v>99.3419</v>
+        <v>99.9408</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2014-02</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>101.7588</v>
+        <v>99.97450000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>99.8219</v>
+        <v>99.0861</v>
       </c>
       <c r="D3" t="n">
-        <v>99.5741</v>
+        <v>98.929</v>
       </c>
       <c r="E3" t="n">
-        <v>99.07850000000001</v>
+        <v>99.69289999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>98.9632</v>
+        <v>97.5547</v>
       </c>
       <c r="G3" t="n">
-        <v>95.8646</v>
+        <v>96.8048</v>
       </c>
       <c r="H3" t="n">
-        <v>99.6103</v>
+        <v>100.0991</v>
       </c>
       <c r="I3" t="n">
-        <v>99.2962</v>
+        <v>100.7159</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2014-03</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>101.8732</v>
+        <v>99.0976</v>
       </c>
       <c r="C4" t="n">
-        <v>99.8312</v>
+        <v>99.1546</v>
       </c>
       <c r="D4" t="n">
-        <v>99.3548</v>
+        <v>98.8817</v>
       </c>
       <c r="E4" t="n">
-        <v>99.0886</v>
+        <v>99.8905</v>
       </c>
       <c r="F4" t="n">
-        <v>98.89</v>
+        <v>97.8763</v>
       </c>
       <c r="G4" t="n">
-        <v>94.8005</v>
+        <v>96.62520000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>99.84910000000001</v>
+        <v>100.2132</v>
       </c>
       <c r="I4" t="n">
-        <v>98.7277</v>
+        <v>101.2646</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2014-04</t>
+          <t>2014-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>102.0701</v>
+        <v>101.5805</v>
       </c>
       <c r="C5" t="n">
-        <v>99.9222</v>
+        <v>99.76609999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>99.4534</v>
+        <v>99.2636</v>
       </c>
       <c r="E5" t="n">
-        <v>98.9629</v>
+        <v>98.8672</v>
       </c>
       <c r="F5" t="n">
-        <v>98.92010000000001</v>
+        <v>97.68640000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>95.54949999999999</v>
+        <v>96.95010000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>99.90479999999999</v>
+        <v>99.8522</v>
       </c>
       <c r="I5" t="n">
-        <v>99.21639999999999</v>
+        <v>99.3419</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2014-05</t>
+          <t>2014-02</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>101.6386</v>
+        <v>101.7588</v>
       </c>
       <c r="C6" t="n">
-        <v>99.8402</v>
+        <v>99.8219</v>
       </c>
       <c r="D6" t="n">
-        <v>99.2368</v>
+        <v>99.5741</v>
       </c>
       <c r="E6" t="n">
-        <v>99.10209999999999</v>
+        <v>99.07850000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>99.02249999999999</v>
+        <v>98.9632</v>
       </c>
       <c r="G6" t="n">
-        <v>96.6093</v>
+        <v>95.8646</v>
       </c>
       <c r="H6" t="n">
-        <v>99.8627</v>
+        <v>99.6103</v>
       </c>
       <c r="I6" t="n">
-        <v>99.17059999999999</v>
+        <v>99.2962</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2014-06</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>101.3371</v>
+        <v>101.8732</v>
       </c>
       <c r="C7" t="n">
-        <v>99.0761</v>
+        <v>99.8312</v>
       </c>
       <c r="D7" t="n">
-        <v>99.37609999999999</v>
+        <v>99.3548</v>
       </c>
       <c r="E7" t="n">
-        <v>99.235</v>
+        <v>99.0886</v>
       </c>
       <c r="F7" t="n">
-        <v>99.0204</v>
+        <v>98.89</v>
       </c>
       <c r="G7" t="n">
-        <v>97.0591</v>
+        <v>94.8005</v>
       </c>
       <c r="H7" t="n">
-        <v>99.876</v>
+        <v>99.84910000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>99.2516</v>
+        <v>98.7277</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2014-07</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>100.889</v>
+        <v>102.0701</v>
       </c>
       <c r="C8" t="n">
-        <v>99.0766</v>
+        <v>99.9222</v>
       </c>
       <c r="D8" t="n">
-        <v>99.4055</v>
+        <v>99.4534</v>
       </c>
       <c r="E8" t="n">
-        <v>99.3259</v>
+        <v>98.9629</v>
       </c>
       <c r="F8" t="n">
-        <v>98.66249999999999</v>
+        <v>98.92010000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>98.58839999999999</v>
+        <v>95.54949999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>99.96810000000001</v>
+        <v>99.90479999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>99.2876</v>
+        <v>99.21639999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2014-08</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>101.2089</v>
+        <v>101.6386</v>
       </c>
       <c r="C9" t="n">
-        <v>99.0236</v>
+        <v>99.8402</v>
       </c>
       <c r="D9" t="n">
-        <v>99.3587</v>
+        <v>99.2368</v>
       </c>
       <c r="E9" t="n">
-        <v>99.55410000000001</v>
+        <v>99.10209999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>98.2313</v>
+        <v>99.02249999999999</v>
       </c>
       <c r="G9" t="n">
-        <v>98.0104</v>
+        <v>96.6093</v>
       </c>
       <c r="H9" t="n">
-        <v>100.0062</v>
+        <v>99.8627</v>
       </c>
       <c r="I9" t="n">
-        <v>99.57989999999999</v>
+        <v>99.17059999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2014-09</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.7608</v>
+        <v>101.3371</v>
       </c>
       <c r="C10" t="n">
-        <v>98.8481</v>
+        <v>99.0761</v>
       </c>
       <c r="D10" t="n">
-        <v>99.2136</v>
+        <v>99.37609999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>99.7453</v>
+        <v>99.235</v>
       </c>
       <c r="F10" t="n">
-        <v>98.1515</v>
+        <v>99.0204</v>
       </c>
       <c r="G10" t="n">
-        <v>97.72969999999999</v>
+        <v>97.0591</v>
       </c>
       <c r="H10" t="n">
-        <v>100.0905</v>
+        <v>99.876</v>
       </c>
       <c r="I10" t="n">
-        <v>99.8754</v>
+        <v>99.2516</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2014-10</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>99.75700000000001</v>
+        <v>100.889</v>
       </c>
       <c r="C11" t="n">
-        <v>98.9944</v>
+        <v>99.0766</v>
       </c>
       <c r="D11" t="n">
-        <v>99.09480000000001</v>
+        <v>99.4055</v>
       </c>
       <c r="E11" t="n">
-        <v>99.79600000000001</v>
+        <v>99.3259</v>
       </c>
       <c r="F11" t="n">
-        <v>98.24760000000001</v>
+        <v>98.66249999999999</v>
       </c>
       <c r="G11" t="n">
-        <v>96.9298</v>
+        <v>98.58839999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>100.1619</v>
+        <v>99.96810000000001</v>
       </c>
       <c r="I11" t="n">
-        <v>99.9408</v>
+        <v>99.2876</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2014-11</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>99.97450000000001</v>
+        <v>101.2089</v>
       </c>
       <c r="C12" t="n">
-        <v>99.0861</v>
+        <v>99.0236</v>
       </c>
       <c r="D12" t="n">
-        <v>98.929</v>
+        <v>99.3587</v>
       </c>
       <c r="E12" t="n">
-        <v>99.69289999999999</v>
+        <v>99.55410000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>97.5547</v>
+        <v>98.2313</v>
       </c>
       <c r="G12" t="n">
-        <v>96.8048</v>
+        <v>98.0104</v>
       </c>
       <c r="H12" t="n">
-        <v>100.0991</v>
+        <v>100.0062</v>
       </c>
       <c r="I12" t="n">
-        <v>100.7159</v>
+        <v>99.57989999999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2014-12</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>99.0976</v>
+        <v>99.7608</v>
       </c>
       <c r="C13" t="n">
-        <v>99.1546</v>
+        <v>98.8481</v>
       </c>
       <c r="D13" t="n">
-        <v>98.8817</v>
+        <v>99.2136</v>
       </c>
       <c r="E13" t="n">
-        <v>99.8905</v>
+        <v>99.7453</v>
       </c>
       <c r="F13" t="n">
-        <v>97.8763</v>
+        <v>98.1515</v>
       </c>
       <c r="G13" t="n">
-        <v>96.62520000000001</v>
+        <v>97.72969999999999</v>
       </c>
       <c r="H13" t="n">
-        <v>100.2132</v>
+        <v>100.0905</v>
       </c>
       <c r="I13" t="n">
-        <v>101.2646</v>
+        <v>99.8754</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2015-01</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>97.78789999999999</v>
+        <v>99.3</v>
       </c>
       <c r="C14" t="n">
-        <v>99.2709</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>98.9804</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>99.8231</v>
+        <v>99</v>
       </c>
       <c r="F14" t="n">
-        <v>97.49630000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="G14" t="n">
-        <v>94.99420000000001</v>
+        <v>92.7</v>
       </c>
       <c r="H14" t="n">
-        <v>100.004</v>
+        <v>99.8</v>
       </c>
       <c r="I14" t="n">
-        <v>101.6771</v>
+        <v>101.6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2015-02</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>98.0038</v>
+        <v>99.2931</v>
       </c>
       <c r="C15" t="n">
-        <v>99.23690000000001</v>
+        <v>98.7612</v>
       </c>
       <c r="D15" t="n">
-        <v>98.73439999999999</v>
+        <v>98.90779999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>100.0447</v>
+        <v>98.8398</v>
       </c>
       <c r="F15" t="n">
-        <v>96.6002</v>
+        <v>98.42440000000001</v>
       </c>
       <c r="G15" t="n">
-        <v>94.2916</v>
+        <v>91.8514</v>
       </c>
       <c r="H15" t="n">
-        <v>100.0672</v>
+        <v>99.7299</v>
       </c>
       <c r="I15" t="n">
-        <v>101.7187</v>
+        <v>101.0804</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2015-03</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>98.7375</v>
+        <v>99.97539999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>99.2576</v>
+        <v>98.77630000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>98.92659999999999</v>
+        <v>98.8558</v>
       </c>
       <c r="E16" t="n">
-        <v>99.91119999999999</v>
+        <v>98.75239999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>97.08029999999999</v>
+        <v>98.18389999999999</v>
       </c>
       <c r="G16" t="n">
-        <v>95.7461</v>
+        <v>91.43380000000001</v>
       </c>
       <c r="H16" t="n">
-        <v>99.85469999999999</v>
+        <v>99.5763</v>
       </c>
       <c r="I16" t="n">
-        <v>102.2053</v>
+        <v>100.7466</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2015-04</t>
+          <t>2015-01</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>97.911</v>
+        <v>97.78789999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>98.6816</v>
+        <v>99.2709</v>
       </c>
       <c r="D17" t="n">
-        <v>98.76609999999999</v>
+        <v>98.9804</v>
       </c>
       <c r="E17" t="n">
-        <v>100.0138</v>
+        <v>99.8231</v>
       </c>
       <c r="F17" t="n">
-        <v>97.0301</v>
+        <v>97.49630000000001</v>
       </c>
       <c r="G17" t="n">
-        <v>96.40940000000001</v>
+        <v>94.99420000000001</v>
       </c>
       <c r="H17" t="n">
-        <v>99.786</v>
+        <v>100.004</v>
       </c>
       <c r="I17" t="n">
-        <v>102.1247</v>
+        <v>101.6771</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2015-05</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>97.88079999999999</v>
+        <v>98.0038</v>
       </c>
       <c r="C18" t="n">
-        <v>98.72799999999999</v>
+        <v>99.23690000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>98.6326</v>
+        <v>98.73439999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>99.84399999999999</v>
+        <v>100.0447</v>
       </c>
       <c r="F18" t="n">
-        <v>97.59990000000001</v>
+        <v>96.6002</v>
       </c>
       <c r="G18" t="n">
-        <v>96.1267</v>
+        <v>94.2916</v>
       </c>
       <c r="H18" t="n">
-        <v>99.8314</v>
+        <v>100.0672</v>
       </c>
       <c r="I18" t="n">
-        <v>102.0539</v>
+        <v>101.7187</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2015-06</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.893</v>
+        <v>98.7375</v>
       </c>
       <c r="C19" t="n">
-        <v>99.5398</v>
+        <v>99.2576</v>
       </c>
       <c r="D19" t="n">
-        <v>98.4926</v>
+        <v>98.92659999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>99.8253</v>
+        <v>99.91119999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>97.482</v>
+        <v>97.08029999999999</v>
       </c>
       <c r="G19" t="n">
-        <v>95.2055</v>
+        <v>95.7461</v>
       </c>
       <c r="H19" t="n">
-        <v>99.8045</v>
+        <v>99.85469999999999</v>
       </c>
       <c r="I19" t="n">
-        <v>102.3385</v>
+        <v>102.2053</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2015-07</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>98.3383</v>
+        <v>97.911</v>
       </c>
       <c r="C20" t="n">
-        <v>99.3272</v>
+        <v>98.6816</v>
       </c>
       <c r="D20" t="n">
-        <v>98.3047</v>
+        <v>98.76609999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>99.6716</v>
+        <v>100.0138</v>
       </c>
       <c r="F20" t="n">
-        <v>98.01560000000001</v>
+        <v>97.0301</v>
       </c>
       <c r="G20" t="n">
-        <v>93.6688</v>
+        <v>96.40940000000001</v>
       </c>
       <c r="H20" t="n">
-        <v>99.7273</v>
+        <v>99.786</v>
       </c>
       <c r="I20" t="n">
-        <v>102.289</v>
+        <v>102.1247</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2015-08</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>97.75920000000001</v>
+        <v>97.88079999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>99.4853</v>
+        <v>98.72799999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>98.2931</v>
+        <v>98.6326</v>
       </c>
       <c r="E21" t="n">
-        <v>99.4541</v>
+        <v>99.84399999999999</v>
       </c>
       <c r="F21" t="n">
-        <v>97.9413</v>
+        <v>97.59990000000001</v>
       </c>
       <c r="G21" t="n">
-        <v>92.4015</v>
+        <v>96.1267</v>
       </c>
       <c r="H21" t="n">
-        <v>99.8009</v>
+        <v>99.8314</v>
       </c>
       <c r="I21" t="n">
-        <v>101.9621</v>
+        <v>102.0539</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2015-09</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>99.2443</v>
+        <v>97.893</v>
       </c>
       <c r="C22" t="n">
-        <v>99.37860000000001</v>
+        <v>99.5398</v>
       </c>
       <c r="D22" t="n">
-        <v>98.52930000000001</v>
+        <v>98.4926</v>
       </c>
       <c r="E22" t="n">
-        <v>99.316</v>
+        <v>99.8253</v>
       </c>
       <c r="F22" t="n">
-        <v>98.0429</v>
+        <v>97.482</v>
       </c>
       <c r="G22" t="n">
-        <v>92.38639999999999</v>
+        <v>95.2055</v>
       </c>
       <c r="H22" t="n">
-        <v>99.8553</v>
+        <v>99.8045</v>
       </c>
       <c r="I22" t="n">
-        <v>101.7521</v>
+        <v>102.3385</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2015-10</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>99.3</v>
+        <v>98.3383</v>
       </c>
       <c r="C23" t="n">
-        <v>99.09999999999999</v>
+        <v>99.3272</v>
       </c>
       <c r="D23" t="n">
-        <v>98.59999999999999</v>
+        <v>98.3047</v>
       </c>
       <c r="E23" t="n">
-        <v>99</v>
+        <v>99.6716</v>
       </c>
       <c r="F23" t="n">
-        <v>98.09999999999999</v>
+        <v>98.01560000000001</v>
       </c>
       <c r="G23" t="n">
-        <v>92.7</v>
+        <v>93.6688</v>
       </c>
       <c r="H23" t="n">
-        <v>99.8</v>
+        <v>99.7273</v>
       </c>
       <c r="I23" t="n">
-        <v>101.6</v>
+        <v>102.289</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2015-11</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>99.2931</v>
+        <v>97.75920000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>98.7612</v>
+        <v>99.4853</v>
       </c>
       <c r="D24" t="n">
-        <v>98.90779999999999</v>
+        <v>98.2931</v>
       </c>
       <c r="E24" t="n">
-        <v>98.8398</v>
+        <v>99.4541</v>
       </c>
       <c r="F24" t="n">
-        <v>98.42440000000001</v>
+        <v>97.9413</v>
       </c>
       <c r="G24" t="n">
-        <v>91.8514</v>
+        <v>92.4015</v>
       </c>
       <c r="H24" t="n">
-        <v>99.7299</v>
+        <v>99.8009</v>
       </c>
       <c r="I24" t="n">
-        <v>101.0804</v>
+        <v>101.9621</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2015-12</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>99.97539999999999</v>
+        <v>99.2443</v>
       </c>
       <c r="C25" t="n">
-        <v>98.77630000000001</v>
+        <v>99.37860000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>98.8558</v>
+        <v>98.52930000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>98.75239999999999</v>
+        <v>99.316</v>
       </c>
       <c r="F25" t="n">
-        <v>98.18389999999999</v>
+        <v>98.0429</v>
       </c>
       <c r="G25" t="n">
-        <v>91.43380000000001</v>
+        <v>92.38639999999999</v>
       </c>
       <c r="H25" t="n">
-        <v>99.5763</v>
+        <v>99.8553</v>
       </c>
       <c r="I25" t="n">
-        <v>100.7466</v>
+        <v>101.7521</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2016-01</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>99.0095</v>
+        <v>100.7</v>
       </c>
       <c r="C26" t="n">
-        <v>98.2535</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>97.82429999999999</v>
+        <v>98.7</v>
       </c>
       <c r="E26" t="n">
-        <v>99.1373</v>
+        <v>100.2</v>
       </c>
       <c r="F26" t="n">
-        <v>97.63500000000001</v>
+        <v>100.4</v>
       </c>
       <c r="G26" t="n">
-        <v>93.0772</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="H26" t="n">
-        <v>98.7898</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="I26" t="n">
-        <v>100.7477</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2016-02</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>99.1425</v>
+        <v>100.8</v>
       </c>
       <c r="C27" t="n">
-        <v>98.0063</v>
+        <v>99.5</v>
       </c>
       <c r="D27" t="n">
-        <v>98.13630000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="E27" t="n">
-        <v>99.1284</v>
+        <v>100.3</v>
       </c>
       <c r="F27" t="n">
-        <v>98.0453</v>
+        <v>101</v>
       </c>
       <c r="G27" t="n">
-        <v>94.26260000000001</v>
+        <v>102.1</v>
       </c>
       <c r="H27" t="n">
-        <v>98.7719</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="I27" t="n">
-        <v>100.8169</v>
+        <v>101.3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2016-03</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>98.5402</v>
+        <v>101.1</v>
       </c>
       <c r="C28" t="n">
-        <v>98.096</v>
+        <v>100.1</v>
       </c>
       <c r="D28" t="n">
-        <v>97.7881</v>
+        <v>99</v>
       </c>
       <c r="E28" t="n">
-        <v>99.29859999999999</v>
+        <v>101</v>
       </c>
       <c r="F28" t="n">
-        <v>98.3344</v>
+        <v>103.6</v>
       </c>
       <c r="G28" t="n">
-        <v>94.7402</v>
+        <v>105.2</v>
       </c>
       <c r="H28" t="n">
-        <v>98.94889999999999</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="I28" t="n">
-        <v>101.0286</v>
+        <v>101.3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2016-04</t>
+          <t>2016-01</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>98.2642</v>
+        <v>99.0095</v>
       </c>
       <c r="C29" t="n">
-        <v>98.64490000000001</v>
+        <v>98.2535</v>
       </c>
       <c r="D29" t="n">
-        <v>98.0686</v>
+        <v>97.82429999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>99.57299999999999</v>
+        <v>99.1373</v>
       </c>
       <c r="F29" t="n">
-        <v>98.49809999999999</v>
+        <v>97.63500000000001</v>
       </c>
       <c r="G29" t="n">
-        <v>94.7587</v>
+        <v>93.0772</v>
       </c>
       <c r="H29" t="n">
-        <v>98.748</v>
+        <v>98.7898</v>
       </c>
       <c r="I29" t="n">
-        <v>100.5606</v>
+        <v>100.7477</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2016-05</t>
+          <t>2016-02</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>99.5</v>
+        <v>99.1425</v>
       </c>
       <c r="C30" t="n">
-        <v>98.5</v>
+        <v>98.0063</v>
       </c>
       <c r="D30" t="n">
-        <v>98.09999999999999</v>
+        <v>98.13630000000001</v>
       </c>
       <c r="E30" t="n">
-        <v>99.8</v>
+        <v>99.1284</v>
       </c>
       <c r="F30" t="n">
-        <v>98.2</v>
+        <v>98.0453</v>
       </c>
       <c r="G30" t="n">
-        <v>94.2</v>
+        <v>94.26260000000001</v>
       </c>
       <c r="H30" t="n">
-        <v>98.7</v>
+        <v>98.7719</v>
       </c>
       <c r="I30" t="n">
-        <v>100.4</v>
+        <v>100.8169</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2016-06</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>100.4</v>
+        <v>98.5402</v>
       </c>
       <c r="C31" t="n">
-        <v>98.7</v>
+        <v>98.096</v>
       </c>
       <c r="D31" t="n">
-        <v>98.5</v>
+        <v>97.7881</v>
       </c>
       <c r="E31" t="n">
-        <v>100</v>
+        <v>99.29859999999999</v>
       </c>
       <c r="F31" t="n">
-        <v>98.5</v>
+        <v>98.3344</v>
       </c>
       <c r="G31" t="n">
-        <v>94.90000000000001</v>
+        <v>94.7402</v>
       </c>
       <c r="H31" t="n">
-        <v>98.8</v>
+        <v>98.94889999999999</v>
       </c>
       <c r="I31" t="n">
-        <v>100.6</v>
+        <v>101.0286</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2016-07</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>100.9</v>
+        <v>98.2642</v>
       </c>
       <c r="C32" t="n">
-        <v>98.59999999999999</v>
+        <v>98.64490000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>98.7</v>
+        <v>98.0686</v>
       </c>
       <c r="E32" t="n">
-        <v>100.1</v>
+        <v>99.57299999999999</v>
       </c>
       <c r="F32" t="n">
-        <v>98.8</v>
+        <v>98.49809999999999</v>
       </c>
       <c r="G32" t="n">
-        <v>96.7</v>
+        <v>94.7587</v>
       </c>
       <c r="H32" t="n">
-        <v>98.40000000000001</v>
+        <v>98.748</v>
       </c>
       <c r="I32" t="n">
-        <v>100.5</v>
+        <v>100.5606</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2016-08</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>101.2</v>
+        <v>99.5</v>
       </c>
       <c r="C33" t="n">
-        <v>98.8</v>
+        <v>98.5</v>
       </c>
       <c r="D33" t="n">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="E33" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="F33" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="G33" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="H33" t="n">
         <v>98.7</v>
       </c>
-      <c r="E33" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="F33" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="G33" t="n">
-        <v>97.90000000000001</v>
-      </c>
-      <c r="H33" t="n">
-        <v>98</v>
-      </c>
       <c r="I33" t="n">
-        <v>100.9</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2016-09</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>101</v>
+        <v>100.4</v>
       </c>
       <c r="C34" t="n">
-        <v>99.09999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="D34" t="n">
-        <v>98.7</v>
+        <v>98.5</v>
       </c>
       <c r="E34" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="F34" t="n">
-        <v>99.09999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="G34" t="n">
-        <v>97.8</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="H34" t="n">
-        <v>97.2</v>
+        <v>98.8</v>
       </c>
       <c r="I34" t="n">
-        <v>100.8</v>
+        <v>100.6</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2016-10</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>100.7</v>
+        <v>100.9</v>
       </c>
       <c r="C35" t="n">
-        <v>99.40000000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="D35" t="n">
         <v>98.7</v>
       </c>
       <c r="E35" t="n">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="F35" t="n">
-        <v>100.4</v>
+        <v>98.8</v>
       </c>
       <c r="G35" t="n">
-        <v>98.59999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="H35" t="n">
-        <v>96.59999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="I35" t="n">
-        <v>101</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2016-11</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>100.8</v>
+        <v>101.2</v>
       </c>
       <c r="C36" t="n">
-        <v>99.5</v>
+        <v>98.8</v>
       </c>
       <c r="D36" t="n">
-        <v>98.59999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="E36" t="n">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="F36" t="n">
-        <v>101</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="G36" t="n">
-        <v>102.1</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="H36" t="n">
-        <v>97.09999999999999</v>
+        <v>98</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3</v>
+        <v>100.9</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2016-12</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>101.1</v>
+        <v>101</v>
       </c>
       <c r="C37" t="n">
-        <v>100.1</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>99</v>
+        <v>98.7</v>
       </c>
       <c r="E37" t="n">
-        <v>101</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F37" t="n">
-        <v>103.6</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="G37" t="n">
-        <v>105.2</v>
+        <v>97.8</v>
       </c>
       <c r="H37" t="n">
-        <v>97.09999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="I37" t="n">
-        <v>101.3</v>
+        <v>100.8</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2017-01</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>102.1</v>
+        <v>100.2</v>
       </c>
       <c r="C38" t="n">
-        <v>100.5</v>
+        <v>101.3</v>
       </c>
       <c r="D38" t="n">
-        <v>99.59999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E38" t="n">
-        <v>101.5</v>
+        <v>102.9</v>
       </c>
       <c r="F38" t="n">
-        <v>104.4</v>
+        <v>105.4</v>
       </c>
       <c r="G38" t="n">
-        <v>105.7</v>
+        <v>110.6</v>
       </c>
       <c r="H38" t="n">
-        <v>97.40000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="I38" t="n">
-        <v>101.5</v>
+        <v>101.7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2017-02</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>101.7</v>
+        <v>99.8</v>
       </c>
       <c r="C39" t="n">
-        <v>101.2</v>
+        <v>101.4</v>
       </c>
       <c r="D39" t="n">
-        <v>99.3</v>
+        <v>100.1</v>
       </c>
       <c r="E39" t="n">
-        <v>101.6</v>
+        <v>103.2</v>
       </c>
       <c r="F39" t="n">
-        <v>104.6</v>
+        <v>105.1</v>
       </c>
       <c r="G39" t="n">
-        <v>106.4</v>
+        <v>108.6</v>
       </c>
       <c r="H39" t="n">
-        <v>97.3</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="I39" t="n">
-        <v>100.9</v>
+        <v>101.5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2017-03</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>102.5</v>
+        <v>99.3</v>
       </c>
       <c r="C40" t="n">
-        <v>101.5</v>
+        <v>100.7</v>
       </c>
       <c r="D40" t="n">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="E40" t="n">
-        <v>102.1</v>
+        <v>103</v>
       </c>
       <c r="F40" t="n">
-        <v>104.2</v>
+        <v>102</v>
       </c>
       <c r="G40" t="n">
-        <v>106.6</v>
+        <v>106.5</v>
       </c>
       <c r="H40" t="n">
-        <v>97.2</v>
+        <v>98.8</v>
       </c>
       <c r="I40" t="n">
-        <v>101.8</v>
+        <v>101.9</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2017-04</t>
+          <t>2017-01</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>102.4</v>
+        <v>102.1</v>
       </c>
       <c r="C41" t="n">
-        <v>101.4</v>
+        <v>100.5</v>
       </c>
       <c r="D41" t="n">
-        <v>99.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>102.1</v>
+        <v>101.5</v>
       </c>
       <c r="F41" t="n">
-        <v>104.2</v>
+        <v>104.4</v>
       </c>
       <c r="G41" t="n">
-        <v>106.4</v>
+        <v>105.7</v>
       </c>
       <c r="H41" t="n">
         <v>97.40000000000001</v>
       </c>
       <c r="I41" t="n">
-        <v>101.9</v>
+        <v>101.5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2017-05</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>100.7</v>
+        <v>101.7</v>
       </c>
       <c r="C42" t="n">
-        <v>101.8</v>
+        <v>101.2</v>
       </c>
       <c r="D42" t="n">
-        <v>100</v>
+        <v>99.3</v>
       </c>
       <c r="E42" t="n">
-        <v>102.2</v>
+        <v>101.6</v>
       </c>
       <c r="F42" t="n">
-        <v>103.9</v>
+        <v>104.6</v>
       </c>
       <c r="G42" t="n">
-        <v>106.3</v>
+        <v>106.4</v>
       </c>
       <c r="H42" t="n">
-        <v>97.40000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="I42" t="n">
-        <v>102.8</v>
+        <v>100.9</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2017-06</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>100.2</v>
+        <v>102.5</v>
       </c>
       <c r="C43" t="n">
-        <v>101.8</v>
+        <v>101.5</v>
       </c>
       <c r="D43" t="n">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="E43" t="n">
         <v>102.1</v>
       </c>
       <c r="F43" t="n">
-        <v>103.2</v>
+        <v>104.2</v>
       </c>
       <c r="G43" t="n">
-        <v>106.4</v>
+        <v>106.6</v>
       </c>
       <c r="H43" t="n">
-        <v>97.59999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="I43" t="n">
-        <v>102.4</v>
+        <v>101.8</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2017-07</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>99.90000000000001</v>
+        <v>102.4</v>
       </c>
       <c r="C44" t="n">
-        <v>101.9</v>
+        <v>101.4</v>
       </c>
       <c r="D44" t="n">
-        <v>100.1</v>
+        <v>99.7</v>
       </c>
       <c r="E44" t="n">
         <v>102.1</v>
       </c>
       <c r="F44" t="n">
-        <v>104</v>
+        <v>104.2</v>
       </c>
       <c r="G44" t="n">
         <v>106.4</v>
       </c>
       <c r="H44" t="n">
-        <v>98.2</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="I44" t="n">
-        <v>102.2</v>
+        <v>101.9</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2017-08</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>99.09999999999999</v>
+        <v>100.7</v>
       </c>
       <c r="C45" t="n">
-        <v>101.5</v>
+        <v>101.8</v>
       </c>
       <c r="D45" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="E45" t="n">
         <v>102.2</v>
@@ -1830,134 +1830,134 @@
         <v>103.9</v>
       </c>
       <c r="G45" t="n">
-        <v>108.2</v>
+        <v>106.3</v>
       </c>
       <c r="H45" t="n">
-        <v>98.59999999999999</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="I45" t="n">
-        <v>102.1</v>
+        <v>102.8</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2017-09</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>99.8</v>
+        <v>100.2</v>
       </c>
       <c r="C46" t="n">
-        <v>101.5</v>
+        <v>101.8</v>
       </c>
       <c r="D46" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="E46" t="n">
-        <v>102.6</v>
+        <v>102.1</v>
       </c>
       <c r="F46" t="n">
-        <v>105</v>
+        <v>103.2</v>
       </c>
       <c r="G46" t="n">
-        <v>109.7</v>
+        <v>106.4</v>
       </c>
       <c r="H46" t="n">
-        <v>99.3</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="I46" t="n">
-        <v>101.9</v>
+        <v>102.4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2017-10</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>100.2</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>101.3</v>
+        <v>101.9</v>
       </c>
       <c r="D47" t="n">
-        <v>99.90000000000001</v>
+        <v>100.1</v>
       </c>
       <c r="E47" t="n">
-        <v>102.9</v>
+        <v>102.1</v>
       </c>
       <c r="F47" t="n">
-        <v>105.4</v>
+        <v>104</v>
       </c>
       <c r="G47" t="n">
-        <v>110.6</v>
+        <v>106.4</v>
       </c>
       <c r="H47" t="n">
-        <v>99.7</v>
+        <v>98.2</v>
       </c>
       <c r="I47" t="n">
-        <v>101.7</v>
+        <v>102.2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2017-11</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>99.8</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>101.4</v>
+        <v>101.5</v>
       </c>
       <c r="D48" t="n">
         <v>100.1</v>
       </c>
       <c r="E48" t="n">
-        <v>103.2</v>
+        <v>102.2</v>
       </c>
       <c r="F48" t="n">
-        <v>105.1</v>
+        <v>103.9</v>
       </c>
       <c r="G48" t="n">
-        <v>108.6</v>
+        <v>108.2</v>
       </c>
       <c r="H48" t="n">
-        <v>99.09999999999999</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="I48" t="n">
-        <v>101.5</v>
+        <v>102.1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2017-12</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>99.3</v>
+        <v>99.8</v>
       </c>
       <c r="C49" t="n">
-        <v>100.7</v>
+        <v>101.5</v>
       </c>
       <c r="D49" t="n">
         <v>99.8</v>
       </c>
       <c r="E49" t="n">
-        <v>103</v>
+        <v>102.6</v>
       </c>
       <c r="F49" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G49" t="n">
-        <v>106.5</v>
+        <v>109.7</v>
       </c>
       <c r="H49" t="n">
-        <v>98.8</v>
+        <v>99.3</v>
       </c>
       <c r="I49" t="n">
         <v>101.9</v>
